--- a/results/mp/tinybert/toy-spam/confidence/42/stop-words-topk-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/42/stop-words-topk-0.15/avg_0.003_scores.xlsx
@@ -49,28 +49,25 @@
     <t>however</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
     <t>returned</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
     <t>smaller</t>
   </si>
   <si>
-    <t>probably</t>
-  </si>
-  <si>
-    <t>water</t>
+    <t>junk</t>
   </si>
   <si>
     <t>instead</t>
@@ -79,48 +76,57 @@
     <t>missing</t>
   </si>
   <si>
-    <t>junk</t>
-  </si>
-  <si>
     <t>small</t>
   </si>
   <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
     <t>guess</t>
   </si>
   <si>
-    <t>paint</t>
-  </si>
-  <si>
     <t>broken</t>
   </si>
   <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>tried</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
     <t>apart</t>
   </si>
   <si>
-    <t>plastic</t>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>cheap</t>
   </si>
   <si>
     <t>thought</t>
   </si>
   <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>cheap</t>
+    <t>size</t>
+  </si>
+  <si>
+    <t>though</t>
   </si>
   <si>
     <t>bit</t>
   </si>
   <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>though</t>
-  </si>
-  <si>
     <t>would</t>
   </si>
   <si>
@@ -133,22 +139,16 @@
     <t>work</t>
   </si>
   <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>used</t>
+    <t>product</t>
+  </si>
+  <si>
+    <t>price</t>
   </si>
   <si>
     <t>hard</t>
   </si>
   <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>product</t>
+    <t>3</t>
   </si>
   <si>
     <t>2</t>
@@ -157,30 +157,27 @@
     <t>use</t>
   </si>
   <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
     <t>little</t>
   </si>
   <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
     <t>favorite</t>
   </si>
   <si>
@@ -212,6 +209,9 @@
   </si>
   <si>
     <t>friends</t>
+  </si>
+  <si>
+    <t>christmas</t>
   </si>
   <si>
     <t>fun</t>
@@ -647,13 +647,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="C3">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D3">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>52</v>
       </c>
       <c r="K3">
-        <v>0.8571428571428571</v>
+        <v>0.8</v>
       </c>
       <c r="L3">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="M3">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -697,13 +697,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7954545454545454</v>
+        <v>0.8863636363636364</v>
       </c>
       <c r="C4">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D4">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>53</v>
       </c>
       <c r="K4">
-        <v>0.8307692307692308</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L4">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="M4">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -747,13 +747,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.78125</v>
+        <v>0.765625</v>
       </c>
       <c r="C5">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -765,19 +765,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>54</v>
       </c>
       <c r="K5">
-        <v>0.8148148148148148</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="L5">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="M5">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -797,13 +797,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7631578947368421</v>
+        <v>0.7311827956989247</v>
       </c>
       <c r="C6">
-        <v>29</v>
+        <v>136</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>136</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -815,19 +815,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>55</v>
       </c>
       <c r="K6">
-        <v>0.7419354838709677</v>
+        <v>0.6037735849056604</v>
       </c>
       <c r="L6">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="M6">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -839,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -847,13 +847,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7473118279569892</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="C7">
-        <v>139</v>
+        <v>50</v>
       </c>
       <c r="D7">
-        <v>139</v>
+        <v>50</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -865,19 +865,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>56</v>
       </c>
       <c r="K7">
-        <v>0.5660377358490566</v>
+        <v>0.5</v>
       </c>
       <c r="L7">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M7">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -889,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -897,13 +897,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7183098591549296</v>
+        <v>0.7038834951456311</v>
       </c>
       <c r="C8">
-        <v>51</v>
+        <v>145</v>
       </c>
       <c r="D8">
-        <v>51</v>
+        <v>145</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>57</v>
       </c>
       <c r="K8">
-        <v>0.484375</v>
+        <v>0.4057971014492754</v>
       </c>
       <c r="L8">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="M8">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -939,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -947,13 +947,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7135922330097088</v>
+        <v>0.6621621621621622</v>
       </c>
       <c r="C9">
-        <v>147</v>
+        <v>98</v>
       </c>
       <c r="D9">
-        <v>147</v>
+        <v>98</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K9">
-        <v>0.4057971014492754</v>
+        <v>0.3352459016393443</v>
       </c>
       <c r="L9">
-        <v>28</v>
+        <v>409</v>
       </c>
       <c r="M9">
-        <v>28</v>
+        <v>409</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -989,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>41</v>
+        <v>811</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -997,13 +997,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6351351351351351</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="C10">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="D10">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1015,19 +1015,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>59</v>
       </c>
       <c r="K10">
-        <v>0.3418032786885246</v>
+        <v>0.3113342898134864</v>
       </c>
       <c r="L10">
-        <v>417</v>
+        <v>217</v>
       </c>
       <c r="M10">
-        <v>417</v>
+        <v>217</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1039,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>803</v>
+        <v>480</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1071,13 +1071,13 @@
         <v>60</v>
       </c>
       <c r="K11">
-        <v>0.2797704447632712</v>
+        <v>0.2551867219917012</v>
       </c>
       <c r="L11">
-        <v>195</v>
+        <v>123</v>
       </c>
       <c r="M11">
-        <v>195</v>
+        <v>123</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1089,7 +1089,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>502</v>
+        <v>359</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1097,13 +1097,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5789473684210527</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="C12">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D12">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1115,19 +1115,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>61</v>
       </c>
       <c r="K12">
-        <v>0.2365145228215768</v>
+        <v>0.2</v>
       </c>
       <c r="L12">
-        <v>114</v>
+        <v>24</v>
       </c>
       <c r="M12">
-        <v>114</v>
+        <v>24</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>368</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1147,13 +1147,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5476190476190477</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="C13">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D13">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1165,19 +1165,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>62</v>
       </c>
       <c r="K13">
-        <v>0.225</v>
+        <v>0.1867469879518072</v>
       </c>
       <c r="L13">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M13">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>93</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1197,13 +1197,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5416666666666666</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="C14">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D14">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1215,19 +1215,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>63</v>
       </c>
       <c r="K14">
-        <v>0.2108433734939759</v>
+        <v>0.1743119266055046</v>
       </c>
       <c r="L14">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="M14">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1239,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>131</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1247,13 +1247,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5111111111111111</v>
+        <v>0.4869565217391305</v>
       </c>
       <c r="C15">
-        <v>23</v>
+        <v>168</v>
       </c>
       <c r="D15">
-        <v>23</v>
+        <v>168</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1265,19 +1265,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>22</v>
+        <v>177</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>64</v>
       </c>
       <c r="K15">
-        <v>0.1834862385321101</v>
+        <v>0.1164021164021164</v>
       </c>
       <c r="L15">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="M15">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1289,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>267</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1297,13 +1297,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4909090909090909</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="C16">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D16">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1315,19 +1315,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>65</v>
       </c>
       <c r="K16">
-        <v>0.1375661375661376</v>
+        <v>0.08835341365461848</v>
       </c>
       <c r="L16">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="M16">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>163</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1347,13 +1347,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4666666666666667</v>
+        <v>0.4259259259259259</v>
       </c>
       <c r="C17">
-        <v>161</v>
+        <v>23</v>
       </c>
       <c r="D17">
-        <v>161</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1365,19 +1365,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>184</v>
+        <v>31</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>66</v>
       </c>
       <c r="K17">
-        <v>0.0736196319018405</v>
+        <v>0.08501314636283962</v>
       </c>
       <c r="L17">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="M17">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1389,7 +1389,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>1057</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1397,13 +1397,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4444444444444444</v>
+        <v>0.4259259259259259</v>
       </c>
       <c r="C18">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D18">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1415,31 +1415,31 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>67</v>
       </c>
       <c r="K18">
-        <v>0.02792207792207792</v>
+        <v>0.02790395846852693</v>
       </c>
       <c r="L18">
         <v>43</v>
       </c>
       <c r="M18">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N18">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>1497</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1447,13 +1447,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4444444444444444</v>
+        <v>0.4216867469879518</v>
       </c>
       <c r="C19">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D19">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1465,7 +1465,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1473,13 +1473,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4337349397590362</v>
+        <v>0.4173228346456693</v>
       </c>
       <c r="C20">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D20">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>47</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1499,13 +1499,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4105263157894737</v>
+        <v>0.4</v>
       </c>
       <c r="C21">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D21">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>56</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1525,13 +1525,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4015748031496063</v>
+        <v>0.375</v>
       </c>
       <c r="C22">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="D22">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>76</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1551,13 +1551,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3465346534653465</v>
+        <v>0.360655737704918</v>
       </c>
       <c r="C23">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="D23">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1569,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>132</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1577,13 +1577,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3258426966292135</v>
+        <v>0.3483146067415731</v>
       </c>
       <c r="C24">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D24">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1595,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1603,13 +1603,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3125</v>
+        <v>0.3473684210526316</v>
       </c>
       <c r="C25">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D25">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1621,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>88</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1629,13 +1629,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.2843601895734597</v>
+        <v>0.3203125</v>
       </c>
       <c r="C26">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="D26">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1647,7 +1647,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>151</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1655,13 +1655,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.2448979591836735</v>
+        <v>0.2938388625592417</v>
       </c>
       <c r="C27">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="D27">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>74</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1681,13 +1681,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2268041237113402</v>
+        <v>0.2920792079207921</v>
       </c>
       <c r="C28">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="D28">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1707,13 +1707,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.1965811965811966</v>
+        <v>0.2474226804123711</v>
       </c>
       <c r="C29">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="D29">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1725,7 +1725,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>94</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1733,13 +1733,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.185459940652819</v>
+        <v>0.2393162393162393</v>
       </c>
       <c r="C30">
-        <v>125</v>
+        <v>28</v>
       </c>
       <c r="D30">
-        <v>125</v>
+        <v>28</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1751,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>549</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1759,13 +1759,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.177536231884058</v>
+        <v>0.2244897959183673</v>
       </c>
       <c r="C31">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="D31">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>227</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1785,13 +1785,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.1772151898734177</v>
+        <v>0.1899109792284867</v>
       </c>
       <c r="C32">
-        <v>56</v>
+        <v>128</v>
       </c>
       <c r="D32">
-        <v>56</v>
+        <v>128</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1803,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>260</v>
+        <v>546</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1811,13 +1811,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.1550632911392405</v>
+        <v>0.1884057971014493</v>
       </c>
       <c r="C33">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D33">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1829,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>267</v>
+        <v>224</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1837,13 +1837,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.1528662420382166</v>
+        <v>0.1708860759493671</v>
       </c>
       <c r="C34">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="D34">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1855,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>133</v>
+        <v>262</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1863,13 +1863,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.1428571428571428</v>
+        <v>0.1708860759493671</v>
       </c>
       <c r="C35">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="D35">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1881,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>150</v>
+        <v>262</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1889,13 +1889,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.14</v>
+        <v>0.1409691629955947</v>
       </c>
       <c r="C36">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="D36">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1907,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>172</v>
+        <v>390</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1915,25 +1915,25 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.1379310344827586</v>
+        <v>0.138328530259366</v>
       </c>
       <c r="C37">
         <v>48</v>
       </c>
       <c r="D37">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1941,13 +1941,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.1308411214953271</v>
+        <v>0.12</v>
       </c>
       <c r="C38">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D38">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1959,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1967,13 +1967,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.1277533039647577</v>
+        <v>0.09274193548387097</v>
       </c>
       <c r="C39">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="D39">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1985,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>396</v>
+        <v>225</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1993,13 +1993,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.09363295880149813</v>
+        <v>0.08239700374531835</v>
       </c>
       <c r="C40">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D40">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2019,13 +2019,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.08493150684931507</v>
+        <v>0.0684931506849315</v>
       </c>
       <c r="C41">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D41">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2037,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>334</v>
+        <v>340</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2045,25 +2045,25 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.06589785831960461</v>
+        <v>0.06478873239436619</v>
       </c>
       <c r="C42">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D42">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="E42">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>567</v>
+        <v>332</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2071,25 +2071,25 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.05790645879732739</v>
+        <v>0.06018518518518518</v>
       </c>
       <c r="C43">
         <v>26</v>
       </c>
       <c r="D43">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43">
-        <v>423</v>
+        <v>406</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2097,25 +2097,25 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.05336426914153132</v>
+        <v>0.05921052631578947</v>
       </c>
       <c r="C44">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D44">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="E44">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="G44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>408</v>
+        <v>572</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2123,25 +2123,25 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.03034134007585335</v>
+        <v>0.05790645879732739</v>
       </c>
       <c r="C45">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D45">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E45">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="G45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>767</v>
+        <v>423</v>
       </c>
     </row>
   </sheetData>
